--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/135.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/135.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04236562418552216</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604127631922328</v>
+        <v>-1.606014880848767</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04285806550417555</v>
+        <v>-0.04224105000862569</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1456619763736874</v>
+        <v>-0.1496710030756402</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02908094570887801</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.585672257725077</v>
+        <v>-1.588714049676991</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07357819669460107</v>
+        <v>-0.07197584522911697</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.119371134990602</v>
+        <v>-0.1241010624501106</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01427299524080773</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634458980389792</v>
+        <v>-1.637183607488764</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1214519882689615</v>
+        <v>-0.1196780687192556</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1149213829346849</v>
+        <v>-0.1191507723136199</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0007131471082148987</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.728691570134261</v>
+        <v>-1.730991212070481</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1481520746235851</v>
+        <v>-0.1470329470283403</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1256845256861391</v>
+        <v>-0.1302979757306714</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01288632904613273</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760319910357677</v>
+        <v>-1.760161721435986</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1090408474975056</v>
+        <v>-0.1090424215166269</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1159130149811044</v>
+        <v>-0.120125090149705</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.0279051376128614</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.621080604868297</v>
+        <v>-1.619209883142631</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0445800424228785</v>
+        <v>-0.04452337773451168</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1169597376967693</v>
+        <v>-0.1206555345935833</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.04716336614586469</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331854591329295</v>
+        <v>-1.332321287998761</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009663576255065347</v>
+        <v>-0.007160885852197253</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1116332569902878</v>
+        <v>-0.1165520667443525</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.07241261734550032</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9103582419604728</v>
+        <v>-0.9134212831705238</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01015624424003246</v>
+        <v>-0.003499717376051854</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07149262135887767</v>
+        <v>-0.07643346738064052</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1059515678103478</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3829170265655826</v>
+        <v>-0.3902991762444828</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05735950366871879</v>
+        <v>-0.04830574568299723</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02433186044646646</v>
+        <v>-0.02886346149669114</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1511346315565248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1825005481689291</v>
+        <v>0.171302976139996</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1175421247716506</v>
+        <v>-0.104038614730012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05829627332621315</v>
+        <v>0.05322793175562494</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2105371105449448</v>
       </c>
       <c r="E12" t="n">
-        <v>0.862470512494341</v>
+        <v>0.847059291277686</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2470524180722712</v>
+        <v>-0.2300467154857385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1380927466996728</v>
+        <v>0.1326781209223984</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2870110863227265</v>
       </c>
       <c r="E13" t="n">
-        <v>1.556757754747104</v>
+        <v>1.537537407256901</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4526429256009605</v>
+        <v>-0.4320909579341374</v>
       </c>
       <c r="G13" t="n">
-        <v>0.256680921317588</v>
+        <v>0.2513119420948313</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3785682713500634</v>
       </c>
       <c r="E14" t="n">
-        <v>2.281307088625994</v>
+        <v>2.258354741799188</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6840457726998598</v>
+        <v>-0.6616616467758427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3776065143306346</v>
+        <v>0.3712427550232159</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4839078654253068</v>
       </c>
       <c r="E15" t="n">
-        <v>3.014286868918571</v>
+        <v>2.98806213633858</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9322701621480995</v>
+        <v>-0.9071865934310518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4896640836142732</v>
+        <v>0.4830972758402067</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.600193163717801</v>
       </c>
       <c r="E16" t="n">
-        <v>3.634785668783878</v>
+        <v>3.608605008739284</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.217447011497555</v>
+        <v>-1.186482907343328</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6359408285949887</v>
+        <v>0.626310979610871</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7204032563539806</v>
       </c>
       <c r="E17" t="n">
-        <v>4.22911325271932</v>
+        <v>4.200858035472852</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.472703331370206</v>
+        <v>-1.437349287886671</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7856930077955361</v>
+        <v>0.7753438320729841</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8406078417479859</v>
       </c>
       <c r="E18" t="n">
-        <v>4.757462677147201</v>
+        <v>4.729893732237619</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.7141444854152</v>
+        <v>-1.677240820106745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.922837293834465</v>
+        <v>0.9107299387534201</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9625433846830984</v>
       </c>
       <c r="E19" t="n">
-        <v>5.187557105966128</v>
+        <v>5.159345961255056</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.004120519065501</v>
+        <v>-1.963330600546555</v>
       </c>
       <c r="G19" t="n">
-        <v>1.068111388634912</v>
+        <v>1.055313039159616</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.092588257780511</v>
       </c>
       <c r="E20" t="n">
-        <v>5.525319573129558</v>
+        <v>5.496774736364769</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.258123132708036</v>
+        <v>-2.215888264635735</v>
       </c>
       <c r="G20" t="n">
-        <v>1.21903778609995</v>
+        <v>1.206000185718216</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.230040262327997</v>
       </c>
       <c r="E21" t="n">
-        <v>5.809965191025574</v>
+        <v>5.781454982681455</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.480842116314719</v>
+        <v>-2.43691439067746</v>
       </c>
       <c r="G21" t="n">
-        <v>1.35584523204692</v>
+        <v>1.34348918194471</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.365823853115722</v>
       </c>
       <c r="E22" t="n">
-        <v>6.015582456879326</v>
+        <v>5.988495161820862</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.68621619621423</v>
+        <v>-2.642407309020628</v>
       </c>
       <c r="G22" t="n">
-        <v>1.47149786100361</v>
+        <v>1.458359523398113</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.48523673694214</v>
       </c>
       <c r="E23" t="n">
-        <v>6.155832282644581</v>
+        <v>6.126591729428178</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.80617848952504</v>
+        <v>-2.763805894779626</v>
       </c>
       <c r="G23" t="n">
-        <v>1.570692546027979</v>
+        <v>1.557628187321183</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.576224885345914</v>
       </c>
       <c r="E24" t="n">
-        <v>6.26033928220334</v>
+        <v>6.23014644741855</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.878833638145159</v>
+        <v>-2.838784295622784</v>
       </c>
       <c r="G24" t="n">
-        <v>1.618275144064899</v>
+        <v>1.605427999996843</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.634014227961023</v>
       </c>
       <c r="E25" t="n">
-        <v>6.277865985119023</v>
+        <v>6.247981658082008</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.957000214718512</v>
+        <v>-2.916741527653004</v>
       </c>
       <c r="G25" t="n">
-        <v>1.668385616810627</v>
+        <v>1.657334428559975</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.657864508605938</v>
       </c>
       <c r="E26" t="n">
-        <v>6.266068711804874</v>
+        <v>6.237215367292311</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.01805012035728</v>
+        <v>-2.978624876416501</v>
       </c>
       <c r="G26" t="n">
-        <v>1.686929136078671</v>
+        <v>1.675914150267809</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.649366452842471</v>
       </c>
       <c r="E27" t="n">
-        <v>6.169545137229353</v>
+        <v>6.141559077252627</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.031884174414392</v>
+        <v>-2.993635509766785</v>
       </c>
       <c r="G27" t="n">
-        <v>1.693327523806758</v>
+        <v>1.682534474691999</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.609793763408427</v>
       </c>
       <c r="E28" t="n">
-        <v>6.004457289729972</v>
+        <v>5.978747261402646</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.041933499494336</v>
+        <v>-3.003869782093482</v>
       </c>
       <c r="G28" t="n">
-        <v>1.678815067508366</v>
+        <v>1.668838934317562</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.542931623260956</v>
       </c>
       <c r="E29" t="n">
-        <v>5.833244933829612</v>
+        <v>5.809204939789986</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.998372520312339</v>
+        <v>-2.962070130308221</v>
       </c>
       <c r="G29" t="n">
-        <v>1.641784693660646</v>
+        <v>1.631940778076031</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.455148394674782</v>
       </c>
       <c r="E30" t="n">
-        <v>5.639480031959254</v>
+        <v>5.617476818662592</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.969150855325392</v>
+        <v>-2.934607431689327</v>
       </c>
       <c r="G30" t="n">
-        <v>1.571695196208247</v>
+        <v>1.562885411186328</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.353160417703187</v>
       </c>
       <c r="E31" t="n">
-        <v>5.399364989023955</v>
+        <v>5.379069586473904</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.867383436047257</v>
+        <v>-2.835980180558187</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497124466317506</v>
+        <v>1.488366623926589</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.24351560129703</v>
       </c>
       <c r="E32" t="n">
-        <v>5.167855108624807</v>
+        <v>5.14740702621999</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.805878638882433</v>
+        <v>-2.774147200406571</v>
       </c>
       <c r="G32" t="n">
-        <v>1.423683882155859</v>
+        <v>1.415245565646566</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.133061706607926</v>
       </c>
       <c r="E33" t="n">
-        <v>4.872989384574186</v>
+        <v>4.85342590091554</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.681111652203851</v>
+        <v>-2.651464215044593</v>
       </c>
       <c r="G33" t="n">
-        <v>1.349627856517783</v>
+        <v>1.341984419664747</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.026266782620687</v>
       </c>
       <c r="E34" t="n">
-        <v>4.611883222637221</v>
+        <v>4.59500029354215</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.604419931547158</v>
+        <v>-2.575325762109036</v>
       </c>
       <c r="G34" t="n">
-        <v>1.24883239404705</v>
+        <v>1.241492742884425</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9282227994516663</v>
       </c>
       <c r="E35" t="n">
-        <v>4.29675987249546</v>
+        <v>4.282980909107594</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.530318259354564</v>
+        <v>-2.502908290376233</v>
       </c>
       <c r="G35" t="n">
-        <v>1.157156798365135</v>
+        <v>1.149968253038154</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8401185609902133</v>
       </c>
       <c r="E36" t="n">
-        <v>3.95703617750689</v>
+        <v>3.94446291276594</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.433872598725546</v>
+        <v>-2.407444817678908</v>
       </c>
       <c r="G36" t="n">
-        <v>1.076702384998971</v>
+        <v>1.071629321371019</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7626027562499303</v>
       </c>
       <c r="E37" t="n">
-        <v>3.673380617638172</v>
+        <v>3.661849353555523</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.364997457025231</v>
+        <v>-2.339216597837447</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9902304965320753</v>
+        <v>0.9846616168809135</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6946253791569036</v>
       </c>
       <c r="E38" t="n">
-        <v>3.372080303419672</v>
+        <v>3.364331407285509</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.29692585208634</v>
+        <v>-2.271640808921766</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9004862223119953</v>
+        <v>0.8959640653764984</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6343033569518275</v>
       </c>
       <c r="E39" t="n">
-        <v>3.05350670336402</v>
+        <v>3.047538022856048</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.218749044388699</v>
+        <v>-2.195141118597871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8120043114271984</v>
+        <v>0.8082691640523518</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5802605964060715</v>
       </c>
       <c r="E40" t="n">
-        <v>2.774179696078878</v>
+        <v>2.766838470897132</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.145079440444902</v>
+        <v>-2.120954449372727</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7449463748024252</v>
+        <v>0.7417715782347617</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5294119321186328</v>
       </c>
       <c r="E41" t="n">
-        <v>2.476998589900823</v>
+        <v>2.470660014899345</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.084468686140977</v>
+        <v>-2.062207333708421</v>
       </c>
       <c r="G41" t="n">
-        <v>0.686436936025436</v>
+        <v>0.6842569195424346</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4814873997315288</v>
       </c>
       <c r="E42" t="n">
-        <v>2.200330100911559</v>
+        <v>2.196025158614801</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.998290352240203</v>
+        <v>-1.977669914741604</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6143326940977728</v>
+        <v>0.6131946782730724</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4348853720167366</v>
       </c>
       <c r="E43" t="n">
-        <v>1.947454484959876</v>
+        <v>1.943787020407245</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.935420093487651</v>
+        <v>-1.914282590707704</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5442321785115254</v>
+        <v>0.5422819688202338</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3896949758980032</v>
       </c>
       <c r="E44" t="n">
-        <v>1.745665233609127</v>
+        <v>1.741298904566639</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.883530192125292</v>
+        <v>-1.863226132470073</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4777062603497518</v>
+        <v>0.4756002227654515</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3453701332584279</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532579247024804</v>
+        <v>1.530599130970208</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.798302565773784</v>
+        <v>-1.778338494248767</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4268119260816154</v>
+        <v>0.4249860639009066</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3011842867231171</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336771268334999</v>
+        <v>1.333895535400382</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.738652750143412</v>
+        <v>-1.719439485739255</v>
       </c>
       <c r="G46" t="n">
-        <v>0.374693004937107</v>
+        <v>0.3741389502064091</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2583413337741878</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182029448519928</v>
+        <v>1.180183124090642</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.707177089774762</v>
+        <v>-1.688400615676767</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3271796637415245</v>
+        <v>0.3252703785473867</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2172741251816157</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005062478712092</v>
+        <v>1.004325837763323</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.644622421856031</v>
+        <v>-1.625612205918521</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561252925677688</v>
+        <v>0.2549416301885506</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1797987271304049</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8587463832533436</v>
+        <v>0.8578822467557495</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.594391536647522</v>
+        <v>-1.575286092553175</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2214653915167276</v>
+        <v>0.2204249648775479</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1463740414898851</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7591330091427083</v>
+        <v>0.758231096186203</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.543709694960762</v>
+        <v>-1.523596091619221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1795870387754016</v>
+        <v>0.1782947690768137</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1170492566768216</v>
       </c>
       <c r="E51" t="n">
-        <v>0.643689724729152</v>
+        <v>0.6432836277958563</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.506492799847167</v>
+        <v>-1.486099808111596</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1455693375258511</v>
+        <v>0.1441322580681036</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.09206967822582794</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5365966117540958</v>
+        <v>0.53475028732481</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.462463549976584</v>
+        <v>-1.442752108520535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1060630316003251</v>
+        <v>0.1055766596918432</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07053677534974009</v>
       </c>
       <c r="E53" t="n">
-        <v>0.468452601935625</v>
+        <v>0.4649708716393079</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.422385088100465</v>
+        <v>-1.403873836224408</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07423951300586781</v>
+        <v>0.07313769962095733</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05210986230228219</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3775372574892973</v>
+        <v>0.3720880032913544</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.370993363789998</v>
+        <v>-1.350738885737101</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04326596473691288</v>
+        <v>0.04273866833127715</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03585285608034578</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2878575180531907</v>
+        <v>0.2806548065541187</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.33936344954746</v>
+        <v>-1.319187672450628</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008558843112232716</v>
+        <v>0.008996420427954307</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02106280885184107</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2241113176596341</v>
+        <v>0.2158004966991665</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.319236467043388</v>
+        <v>-1.299026848535448</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008461025646391621</v>
+        <v>-0.008989896071148652</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.00660758457814077</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1482971126630652</v>
+        <v>0.1397029682607634</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.326190483521295</v>
+        <v>-1.30610836056218</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04441319639602063</v>
+        <v>-0.04484919969262093</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.008562036874833666</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08501052585292843</v>
+        <v>0.076030746765908</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.306128035801196</v>
+        <v>-1.287047776012789</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07446751749813596</v>
+        <v>-0.07521989863811769</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.02513303470744288</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04807144511424388</v>
+        <v>0.03790800364800534</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.316496099753204</v>
+        <v>-1.297017613127108</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09952432789012161</v>
+        <v>-0.09981079937019834</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.04411982502018699</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.005205954103541799</v>
+        <v>-0.01751793167035578</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.320326475284889</v>
+        <v>-1.30201827187548</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1041236117625622</v>
+        <v>-0.1050664492162213</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06558611228670752</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04345776678939112</v>
+        <v>-0.05678656070856534</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.300304165052384</v>
+        <v>-1.28250987888608</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1352750241922241</v>
+        <v>-0.1360037950453863</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.08935770636655971</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.0974293084396704</v>
+        <v>-0.1110304076668296</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.325086309107703</v>
+        <v>-1.30681037309028</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427972615729201</v>
+        <v>-0.1439462955314696</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1148715345246465</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1404614171969099</v>
+        <v>-0.1550431303366395</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.365061672731376</v>
+        <v>-1.346058539879913</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617657660037147</v>
+        <v>-0.1624095398243267</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1415250402903399</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1946627656388991</v>
+        <v>-0.2117660574109524</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.406625221648442</v>
+        <v>-1.386790219691372</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774225342032927</v>
+        <v>-0.1787887828005816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1688236959651083</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2473719439538952</v>
+        <v>-0.266220822931471</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.439433289203273</v>
+        <v>-1.419629767628628</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.202849239088784</v>
+        <v>-0.2040092911811826</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1954803657079259</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3141402610603491</v>
+        <v>-0.3323925867909518</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.481325808116691</v>
+        <v>-1.462605998707062</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2087061642391438</v>
+        <v>-0.2102046304426221</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2204929731122267</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3011530292904971</v>
+        <v>-0.3214138034198796</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.527616136455023</v>
+        <v>-1.509251268357247</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2417731579394287</v>
+        <v>-0.2434258780167944</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2429729112499411</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3288242854429632</v>
+        <v>-0.3467948617508532</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.558828935630415</v>
+        <v>-1.538805838388349</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2520987233751612</v>
+        <v>-0.253616077808095</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2625248093845287</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3569945056568816</v>
+        <v>-0.3748297163203397</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.618395328247358</v>
+        <v>-1.59731685118446</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2583885037838787</v>
+        <v>-0.2589740388970026</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2785971690308837</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3834820994301296</v>
+        <v>-0.4010355606708749</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.636263593312363</v>
+        <v>-1.615817871936228</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2687628638123716</v>
+        <v>-0.2693184925621907</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2906675204372185</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.390535279112678</v>
+        <v>-0.4067807304636224</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.674879004415233</v>
+        <v>-1.652819913439765</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2874417487248468</v>
+        <v>-0.2876605373827076</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2987511508293699</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3888699668823418</v>
+        <v>-0.4044622002979464</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.707728783476778</v>
+        <v>-1.685138461047871</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2850130372206799</v>
+        <v>-0.2850539617178337</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3029176740885572</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.349924011763999</v>
+        <v>-0.3642349936148648</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.732193762679155</v>
+        <v>-1.710739095046266</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2874968393940924</v>
+        <v>-0.2866106666288001</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3039139079148502</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3083148162924153</v>
+        <v>-0.3228776412026892</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.764747626145896</v>
+        <v>-1.743145787725165</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.292269265369876</v>
+        <v>-0.291515310210773</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3021343314927599</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.245324145077083</v>
+        <v>-0.2581980474702014</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.783871958469699</v>
+        <v>-1.762463724400888</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2962373675746751</v>
+        <v>-0.2944713181205757</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2974442675959587</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1377966028245478</v>
+        <v>-0.1503273690492226</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.791923066275152</v>
+        <v>-1.770722602730353</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2794095291488494</v>
+        <v>-0.2769776696064399</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2893610129752475</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05162850004806298</v>
+        <v>-0.06290005097569722</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.77820942468082</v>
+        <v>-1.757032571422841</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2659784239867907</v>
+        <v>-0.2630775067462335</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2777073025681973</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08342548859777862</v>
+        <v>0.07329824957133001</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.782049244327233</v>
+        <v>-1.760999886618079</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2385464187407623</v>
+        <v>-0.2344948935225343</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2629054690629283</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2110926055073561</v>
+        <v>0.201083417915005</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.810604312216309</v>
+        <v>-1.789955542373526</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2218964444756436</v>
+        <v>-0.2182242578656491</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2451421553284359</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3578399822053405</v>
+        <v>0.3473082202647176</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.766969354135612</v>
+        <v>-1.748565135559804</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1957504128517178</v>
+        <v>-0.1915887062949988</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2247900862863037</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4875926744506414</v>
+        <v>0.4782005023538402</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.745032249642044</v>
+        <v>-1.728669533866563</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1670497481939211</v>
+        <v>-0.1632894165131338</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2030585142097408</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6666326274412308</v>
+        <v>0.6552241368500434</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.705296136924808</v>
+        <v>-1.690622343666482</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1410201939849716</v>
+        <v>-0.1376077205299918</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1811969248399951</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8395276097822623</v>
+        <v>0.8296632319490708</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.635488388895123</v>
+        <v>-1.623147291974565</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1226655570114843</v>
+        <v>-0.1175657350584701</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1608561510198353</v>
       </c>
       <c r="E84" t="n">
-        <v>1.021652640250601</v>
+        <v>1.010214243296109</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.555236236986046</v>
+        <v>-1.545663052690296</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1068246285747142</v>
+        <v>-0.1012526008853098</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1438302521944963</v>
       </c>
       <c r="E85" t="n">
-        <v>1.168941479526313</v>
+        <v>1.155979432062402</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.450379018172798</v>
+        <v>-1.44115998817934</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08709744692745268</v>
+        <v>-0.08021898336736867</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1315829672059528</v>
       </c>
       <c r="E86" t="n">
-        <v>1.33038389874076</v>
+        <v>1.318641716095857</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.333194081601522</v>
+        <v>-1.325830033142517</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05700534936642614</v>
+        <v>-0.05009225738567352</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1242313077572796</v>
       </c>
       <c r="E87" t="n">
-        <v>1.471420734066666</v>
+        <v>1.457936112254483</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.202702387378771</v>
+        <v>-1.196617229455822</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03318886604202543</v>
+        <v>-0.02583190066906601</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1220425280632102</v>
       </c>
       <c r="E88" t="n">
-        <v>1.561410555269669</v>
+        <v>1.550543527256209</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.056513787468848</v>
+        <v>-1.052371756151145</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01903843414153224</v>
+        <v>-0.01203247503262288</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1250437814929079</v>
       </c>
       <c r="E89" t="n">
-        <v>1.666671509987531</v>
+        <v>1.654891550883717</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9103456498075023</v>
+        <v>-0.9091179148928877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00506766870118779</v>
+        <v>0.01250490904933354</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1333287189576073</v>
       </c>
       <c r="E90" t="n">
-        <v>1.710419797444962</v>
+        <v>1.699149820536449</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7186521571007768</v>
+        <v>-0.720710974111438</v>
       </c>
       <c r="G90" t="n">
-        <v>0.006249757061284607</v>
+        <v>0.01463927897781727</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1467255593913017</v>
       </c>
       <c r="E91" t="n">
-        <v>1.727444388260951</v>
+        <v>1.719109957013663</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5335978770476975</v>
+        <v>-0.5361430659668407</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01169563494066454</v>
+        <v>-0.004437832772347064</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1650937685237488</v>
       </c>
       <c r="E92" t="n">
-        <v>1.699771558089363</v>
+        <v>1.692455517213558</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3694166645621866</v>
+        <v>-0.373271437390252</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01496172461736346</v>
+        <v>-0.007291529439265211</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1878629600657615</v>
       </c>
       <c r="E93" t="n">
-        <v>1.656111415702725</v>
+        <v>1.650235602322909</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2168706014213305</v>
+        <v>-0.2211912839093009</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02996527488160162</v>
+        <v>-0.02364401409045806</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2146136666038762</v>
       </c>
       <c r="E94" t="n">
-        <v>1.557373196223533</v>
+        <v>1.5530257554105</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07823571927452981</v>
+        <v>-0.08362358672674207</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03631171997868599</v>
+        <v>-0.02961269459843027</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2454766479792649</v>
       </c>
       <c r="E95" t="n">
-        <v>1.48761739082485</v>
+        <v>1.483121992214415</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0284308345186539</v>
+        <v>0.02329795816409235</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07155715614285099</v>
+        <v>-0.06566717659094382</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2797376825494322</v>
       </c>
       <c r="E96" t="n">
-        <v>1.403325518840956</v>
+        <v>1.399571483236653</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1105474120769108</v>
+        <v>0.1046794687927018</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1006088270646978</v>
+        <v>-0.09479597444973435</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3149442733507532</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323130818629807</v>
+        <v>1.320324342536528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1737080773573435</v>
+        <v>0.1680888290943</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1204099876106604</v>
+        <v>-0.1139486391177211</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3473279620818678</v>
       </c>
       <c r="E98" t="n">
-        <v>1.228639302739884</v>
+        <v>1.224880545078218</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2068112734974182</v>
+        <v>0.2005466773946415</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1409399190097853</v>
+        <v>-0.1350672536682125</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3734246118945322</v>
       </c>
       <c r="E99" t="n">
-        <v>1.142603417569588</v>
+        <v>1.138350417903834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2275442533631909</v>
+        <v>0.2220509266298515</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1432915035770085</v>
+        <v>-0.1376470710080243</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.392313325551565</v>
       </c>
       <c r="E100" t="n">
-        <v>1.054335573285288</v>
+        <v>1.050496540648436</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2395382790675021</v>
+        <v>0.2340103239134941</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1577929417415518</v>
+        <v>-0.1521673974020231</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4045968061921339</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9637665130456468</v>
+        <v>0.9602045077741433</v>
       </c>
       <c r="F101" t="n">
-        <v>0.234161429749139</v>
+        <v>0.226801316337937</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1716521801046043</v>
+        <v>-0.165546559933079</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.416282876575421</v>
       </c>
       <c r="E102" t="n">
-        <v>0.902589111858053</v>
+        <v>0.8998030980133508</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2402497357103301</v>
+        <v>0.2332390545440568</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1972866555141073</v>
+        <v>-0.1906096664015498</v>
       </c>
     </row>
   </sheetData>
